--- a/documentation/MultiUserIncreasePr.xlsx
+++ b/documentation/MultiUserIncreasePr.xlsx
@@ -449,34 +449,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="E1" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>23.0</v>
-      </c>
       <c r="H1" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>12.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -484,34 +484,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -519,34 +519,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -554,34 +554,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>54.0</v>
+        <v>77.0</v>
       </c>
       <c r="D4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="E4" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>47.0</v>
-      </c>
       <c r="J4" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -589,34 +589,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>18.0</v>
+        <v>38.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>43.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -624,34 +624,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>13.0</v>
+        <v>58.0</v>
       </c>
       <c r="G6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="H6" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="J6" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -662,31 +662,31 @@
         <v>17.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E7" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H7" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -694,34 +694,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>47.0</v>
-      </c>
       <c r="H8" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>16.0</v>
+        <v>45.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -729,34 +729,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>36.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>49.0</v>
+        <v>16.0</v>
       </c>
       <c r="F9" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
         <v>31.0</v>
       </c>
-      <c r="G9" t="n" s="0">
-        <v>81.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="I9" t="n" s="0">
-        <v>34.0</v>
-      </c>
       <c r="J9" t="n" s="0">
-        <v>66.0</v>
+        <v>33.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -764,34 +764,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -799,34 +799,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>62.0</v>
+        <v>18.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -834,34 +834,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="E12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="F12" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>55.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="I12" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -887,34 +887,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>41.0</v>
+        <v>51.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -922,34 +922,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -957,34 +957,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="D3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>33.0</v>
-      </c>
       <c r="F3" t="n" s="0">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -992,34 +992,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1027,34 +1027,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>48.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="J5" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>51.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1062,34 +1062,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>44.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>28.0</v>
+        <v>45.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>84.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1097,34 +1097,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>108.0</v>
+        <v>10.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>114.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1132,34 +1132,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>43.0</v>
+        <v>10.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>81.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>66.0</v>
+        <v>10.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1167,34 +1167,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>92.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>115.0</v>
+        <v>23.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>158.0</v>
+        <v>74.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>38.0</v>
+        <v>69.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>54.0</v>
+        <v>17.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>48.0</v>
+        <v>25.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>39.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1202,34 +1202,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>60.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>57.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>64.0</v>
+        <v>18.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>37.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1237,34 +1237,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>89.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>67.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>62.0</v>
+        <v>24.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1272,34 +1272,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>64.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>62.0</v>
+        <v>14.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -1325,34 +1325,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>18.0</v>
+        <v>106.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>20.0</v>
+        <v>75.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>19.0</v>
+        <v>82.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>15.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1360,34 +1360,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>74.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>32.0</v>
+        <v>43.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>39.0</v>
+        <v>106.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>28.0</v>
+        <v>65.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>15.0</v>
+        <v>75.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>16.0</v>
+        <v>78.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>28.0</v>
+        <v>163.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>16.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1395,34 +1395,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>52.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>41.0</v>
+        <v>17.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>19.0</v>
+        <v>61.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>37.0</v>
+        <v>14.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>17.0</v>
+        <v>109.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>13.0</v>
+        <v>155.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>14.0</v>
+        <v>48.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>25.0</v>
+        <v>217.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1430,34 +1430,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>52.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>20.0</v>
+        <v>61.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>21.0</v>
+        <v>61.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>18.0</v>
+        <v>57.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>16.0</v>
+        <v>56.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1465,34 +1465,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="D5" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="E5" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="G5" t="n" s="0">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>13.0</v>
+        <v>90.0</v>
       </c>
       <c r="I5" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
         <v>35.0</v>
       </c>
-      <c r="J5" t="n" s="0">
-        <v>25.0</v>
-      </c>
       <c r="K5" t="n" s="0">
-        <v>13.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1500,34 +1500,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>26.0</v>
+        <v>128.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>16.0</v>
+        <v>42.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>31.0</v>
+        <v>64.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1535,34 +1535,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="C7" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
         <v>22.0</v>
       </c>
-      <c r="D7" t="n" s="0">
-        <v>47.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="J7" t="n" s="0">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>23.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1570,34 +1570,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>40.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>16.0</v>
+        <v>162.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>36.0</v>
+        <v>80.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>32.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>31.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1605,34 +1605,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>86.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>174.0</v>
+        <v>177.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>67.0</v>
+        <v>31.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>58.0</v>
+        <v>29.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>116.0</v>
+        <v>90.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>81.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1640,31 +1640,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>51.0</v>
+        <v>72.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>17.0</v>
+        <v>140.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>61.0</v>
+        <v>128.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>34.0</v>
+        <v>49.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>19.0</v>
+        <v>132.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>177.0</v>
+        <v>59.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>232.0</v>
+        <v>41.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>31.0</v>
+        <v>47.0</v>
       </c>
       <c r="K10" t="n" s="0">
         <v>39.0</v>
@@ -1675,34 +1675,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>24.0</v>
+        <v>54.0</v>
       </c>
       <c r="D11" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
         <v>27.0</v>
       </c>
-      <c r="E11" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>102.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="I11" t="n" s="0">
-        <v>192.0</v>
+        <v>14.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>40.0</v>
+        <v>113.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>49.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1710,34 +1710,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>53.0</v>
+        <v>37.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>16.0</v>
+        <v>77.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>49.0</v>
+        <v>23.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>34.0</v>
+        <v>264.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>67.0</v>
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>
@@ -1763,34 +1763,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>30.0</v>
+        <v>445.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>166.0</v>
+        <v>223.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>41.0</v>
+        <v>185.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>33.0</v>
+        <v>118.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>35.0</v>
+        <v>213.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>37.0</v>
+        <v>147.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>31.0</v>
+        <v>153.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>45.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1798,34 +1798,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>41.0</v>
+        <v>314.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>49.0</v>
+        <v>208.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>25.0</v>
+        <v>272.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>42.0</v>
+        <v>217.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>34.0</v>
+        <v>55.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>30.0</v>
+        <v>247.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>28.0</v>
+        <v>53.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>14.0</v>
+        <v>179.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>55.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1833,34 +1833,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>70.0</v>
+        <v>375.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>39.0</v>
+        <v>67.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>36.0</v>
+        <v>327.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>56.0</v>
+        <v>132.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>26.0</v>
+        <v>113.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>18.0</v>
+        <v>266.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>140.0</v>
+        <v>153.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>31.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1868,34 +1868,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>46.0</v>
+        <v>345.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>68.0</v>
+        <v>401.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>29.0</v>
+        <v>302.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>34.0</v>
+        <v>370.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>33.0</v>
+        <v>209.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>17.0</v>
+        <v>64.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>87.0</v>
+        <v>79.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>26.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1903,34 +1903,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>62.0</v>
+        <v>218.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>114.0</v>
+        <v>135.0</v>
       </c>
       <c r="E5" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="F5" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>39.0</v>
-      </c>
       <c r="H5" t="n" s="0">
-        <v>90.0</v>
+        <v>393.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>21.0</v>
+        <v>193.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>60.0</v>
+        <v>138.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>31.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1938,34 +1938,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>46.0</v>
+        <v>163.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>131.0</v>
+        <v>140.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>31.0</v>
+        <v>192.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>31.0</v>
+        <v>211.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>178.0</v>
+        <v>63.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>111.0</v>
+        <v>267.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>149.0</v>
+        <v>386.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>26.0</v>
+        <v>64.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>35.0</v>
+        <v>64.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>27.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1973,34 +1973,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>44.0</v>
+        <v>60.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>255.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>29.0</v>
+        <v>106.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>148.0</v>
+        <v>226.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>36.0</v>
+        <v>87.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>20.0</v>
+        <v>214.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>63.0</v>
+        <v>239.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>38.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2008,34 +2008,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>25.0</v>
+        <v>102.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>176.0</v>
+        <v>254.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>57.0</v>
+        <v>77.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>28.0</v>
+        <v>312.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>227.0</v>
+        <v>24.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>34.0</v>
+        <v>200.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>29.0</v>
+        <v>294.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>30.0</v>
+        <v>93.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>30.0</v>
+        <v>165.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>77.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -2043,34 +2043,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>53.0</v>
+        <v>158.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>80.0</v>
+        <v>23.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>414.0</v>
+        <v>99.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>65.0</v>
+        <v>262.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>591.0</v>
+        <v>214.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>90.0</v>
+        <v>114.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>54.0</v>
+        <v>29.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>98.0</v>
+        <v>180.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>75.0</v>
+        <v>307.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>108.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -2078,34 +2078,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>39.0</v>
+        <v>160.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>45.0</v>
+        <v>334.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>255.0</v>
+        <v>85.0</v>
       </c>
       <c r="E10" t="n" s="0">
+        <v>391.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
         <v>26.0</v>
       </c>
-      <c r="F10" t="n" s="0">
-        <v>246.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="I10" t="n" s="0">
-        <v>120.0</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>31.0</v>
-      </c>
       <c r="K10" t="n" s="0">
-        <v>34.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2113,34 +2113,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>334.0</v>
+        <v>259.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>490.0</v>
+        <v>164.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>159.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>819.0</v>
+        <v>182.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>51.0</v>
+        <v>186.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>206.0</v>
+        <v>32.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>49.0</v>
+        <v>367.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>31.0</v>
+        <v>172.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>65.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -2148,34 +2148,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>853.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>71.0</v>
+        <v>214.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>256.0</v>
+        <v>114.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>43.0</v>
+        <v>252.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>71.0</v>
+        <v>50.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>82.0</v>
+        <v>445.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>34.0</v>
+        <v>195.0</v>
       </c>
     </row>
   </sheetData>
@@ -2201,34 +2201,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>128.0</v>
+        <v>466.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>39.0</v>
+        <v>214.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>46.0</v>
+        <v>324.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>50.0</v>
+        <v>77.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>31.0</v>
+        <v>435.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>30.0</v>
+        <v>197.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>28.0</v>
+        <v>619.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>29.0</v>
+        <v>135.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>32.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2236,34 +2236,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>123.0</v>
+        <v>107.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>35.0</v>
+        <v>161.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>35.0</v>
+        <v>200.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>68.0</v>
+        <v>370.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>61.0</v>
+        <v>470.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>36.0</v>
+        <v>199.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>151.0</v>
+        <v>330.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>58.0</v>
+        <v>888.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>44.0</v>
+        <v>576.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>36.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -2271,34 +2271,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>50.0</v>
+        <v>387.0</v>
       </c>
       <c r="C3" t="n" s="0">
+        <v>512.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
         <v>41.0</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>58.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>66.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>31.0</v>
-      </c>
       <c r="G3" t="n" s="0">
-        <v>41.0</v>
+        <v>336.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>194.0</v>
+        <v>236.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>60.0</v>
+        <v>86.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>139.0</v>
+        <v>75.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>33.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2306,34 +2306,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>38.0</v>
+        <v>76.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>32.0</v>
+        <v>58.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>44.0</v>
+        <v>193.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>42.0</v>
+        <v>259.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>37.0</v>
+        <v>464.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>81.0</v>
+        <v>224.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>62.0</v>
+        <v>413.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>293.0</v>
+        <v>597.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>54.0</v>
+        <v>537.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>47.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2341,34 +2341,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>121.0</v>
+        <v>513.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>429.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>74.0</v>
+        <v>612.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>69.0</v>
+        <v>118.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>38.0</v>
+        <v>61.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>47.0</v>
+        <v>159.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>42.0</v>
+        <v>333.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>41.0</v>
+        <v>224.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>116.0</v>
+        <v>39.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>118.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2376,34 +2376,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>40.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>23.0</v>
+        <v>136.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>77.0</v>
+        <v>437.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>37.0</v>
+        <v>646.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>41.0</v>
+        <v>474.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>173.0</v>
+        <v>210.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>41.0</v>
+        <v>393.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>277.0</v>
+        <v>643.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>38.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2411,34 +2411,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>80.0</v>
+        <v>683.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>76.0</v>
+        <v>489.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>83.0</v>
+        <v>337.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>47.0</v>
+        <v>283.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>63.0</v>
+        <v>50.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>50.0</v>
+        <v>210.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>32.0</v>
+        <v>202.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>166.0</v>
+        <v>21.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>41.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2446,34 +2446,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>83.0</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>52.0</v>
+        <v>140.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>62.0</v>
+        <v>175.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>34.0</v>
+        <v>174.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>71.0</v>
+        <v>397.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>203.0</v>
+        <v>680.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>73.0</v>
+        <v>214.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>62.0</v>
+        <v>315.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>111.0</v>
+        <v>675.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>52.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -2481,34 +2481,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>119.0</v>
+        <v>548.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>63.0</v>
+        <v>541.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>68.0</v>
+        <v>287.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>88.0</v>
+        <v>451.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>118.0</v>
+        <v>71.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>107.0</v>
+        <v>424.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>288.0</v>
+        <v>335.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>242.0</v>
+        <v>171.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>58.0</v>
+        <v>491.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>60.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -2516,34 +2516,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>84.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>70.0</v>
+        <v>113.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>46.0</v>
+        <v>292.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>28.0</v>
+        <v>162.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>32.0</v>
+        <v>610.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>34.0</v>
+        <v>570.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>325.0</v>
+        <v>199.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>40.0</v>
+        <v>481.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>39.0</v>
+        <v>492.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>50.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2551,34 +2551,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>78.0</v>
+        <v>608.0</v>
       </c>
       <c r="C11" t="n" s="0">
+        <v>687.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
         <v>211.0</v>
       </c>
-      <c r="D11" t="n" s="0">
-        <v>39.0</v>
-      </c>
       <c r="E11" t="n" s="0">
-        <v>39.0</v>
+        <v>471.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>44.0</v>
+        <v>436.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>163.0</v>
+        <v>370.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>71.0</v>
+        <v>470.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>38.0</v>
+        <v>7.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>289.0</v>
+        <v>537.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -2586,34 +2586,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>124.0</v>
+        <v>43.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>39.0</v>
+        <v>279.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>26.0</v>
+        <v>107.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>38.0</v>
+        <v>497.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>40.0</v>
+        <v>16.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>275.0</v>
+        <v>159.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>50.0</v>
+        <v>580.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>36.0</v>
+        <v>494.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>74.0</v>
+        <v>514.0</v>
       </c>
     </row>
   </sheetData>
@@ -2639,34 +2639,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>35.0</v>
+        <v>487.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>38.0</v>
+        <v>18.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>346.0</v>
+        <v>36.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2674,34 +2674,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>32.0</v>
+        <v>488.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>64.0</v>
+        <v>14.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>44.0</v>
+        <v>30.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>52.0</v>
+        <v>13.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>30.0</v>
+        <v>54.0</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>17.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>482.0</v>
+        <v>49.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -2709,34 +2709,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>44.0</v>
+        <v>386.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>45.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>141.0</v>
+        <v>33.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>53.0</v>
+        <v>20.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>58.0</v>
+        <v>18.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>479.0</v>
+        <v>15.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>343.0</v>
+        <v>14.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2744,34 +2744,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>47.0</v>
+        <v>404.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>93.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>111.0</v>
+        <v>9.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>37.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>181.0</v>
+        <v>17.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>220.0</v>
+        <v>17.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>166.0</v>
+        <v>6.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2779,34 +2779,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>38.0</v>
+        <v>550.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>73.0</v>
+        <v>9.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>31.0</v>
+        <v>71.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>44.0</v>
+        <v>11.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>54.0</v>
+        <v>12.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>95.0</v>
+        <v>16.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>239.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2814,34 +2814,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>195.0</v>
+        <v>443.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>183.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>175.0</v>
+        <v>17.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>67.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>39.0</v>
+        <v>11.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>121.0</v>
+        <v>11.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>172.0</v>
+        <v>14.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>66.0</v>
+        <v>16.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>90.0</v>
+        <v>10.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2849,34 +2849,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>107.0</v>
+        <v>407.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>136.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>44.0</v>
+        <v>14.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>564.0</v>
+        <v>20.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>304.0</v>
+        <v>17.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>57.0</v>
+        <v>7.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2884,34 +2884,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>41.0</v>
+        <v>478.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>54.0</v>
+        <v>10.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>33.0</v>
+        <v>7.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>161.0</v>
+        <v>51.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>54.0</v>
+        <v>14.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>884.0</v>
+        <v>17.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>73.0</v>
+        <v>17.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>96.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -2919,34 +2919,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
         <v>67.0</v>
       </c>
-      <c r="C9" t="n" s="0">
-        <v>94.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>83.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>151.0</v>
-      </c>
       <c r="F9" t="n" s="0">
-        <v>74.0</v>
+        <v>42.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>84.0</v>
+        <v>28.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>1640.0</v>
+        <v>28.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>393.0</v>
+        <v>32.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>149.0</v>
+        <v>20.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>35.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -2954,34 +2954,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>26.0</v>
+        <v>397.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>74.0</v>
+        <v>9.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>62.0</v>
+        <v>17.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>48.0</v>
+        <v>16.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>823.0</v>
+        <v>17.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>1817.0</v>
+        <v>16.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>65.0</v>
+        <v>13.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2989,34 +2989,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>29.0</v>
+        <v>502.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>121.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>103.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>258.0</v>
+        <v>35.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>539.0</v>
+        <v>11.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>2129.0</v>
+        <v>13.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>97.0</v>
+        <v>10.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3024,34 +3024,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>25.0</v>
+        <v>709.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>69.0</v>
+        <v>8.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>67.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>43.0</v>
+        <v>77.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>75.0</v>
+        <v>16.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>88.0</v>
+        <v>7.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -3077,34 +3077,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D1" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>28.0</v>
-      </c>
       <c r="K1" t="n" s="0">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3112,34 +3112,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>17.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.0</v>
+        <v>68.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>48.0</v>
+        <v>37.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -3147,34 +3147,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>13.0</v>
+        <v>69.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>13.0</v>
+        <v>68.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="I3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="J3" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="K3" t="n" s="0">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3182,31 +3182,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>13.0</v>
+        <v>47.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>18.0</v>
+        <v>69.0</v>
       </c>
       <c r="E4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="F4" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="H4" t="n" s="0">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>21.0</v>
@@ -3217,34 +3217,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>17.0</v>
+        <v>56.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3252,34 +3252,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>54.0</v>
+        <v>18.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>11.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>54.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -3287,34 +3287,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>42.0</v>
+        <v>11.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>54.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
       <c r="G7" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3322,34 +3322,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>66.0</v>
+        <v>61.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>32.0</v>
+        <v>11.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>18.0</v>
+        <v>58.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -3357,34 +3357,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>46.0</v>
+        <v>14.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="D9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
         <v>40.0</v>
       </c>
-      <c r="E9" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>36.0</v>
-      </c>
       <c r="H9" t="n" s="0">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3392,34 +3392,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>170.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>50.0</v>
+        <v>16.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>16.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3430,31 +3430,31 @@
         <v>12.0</v>
       </c>
       <c r="C11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="D11" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>135.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H11" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3462,34 +3462,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>54.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="H12" t="n" s="0">
-        <v>66.0</v>
-      </c>
-      <c r="I12" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="J12" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -3515,34 +3515,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>38.0</v>
+        <v>17.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3550,34 +3550,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>52.0</v>
+        <v>20.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>85.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="J2" t="n" s="0">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -3585,34 +3585,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>48.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>19.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3620,34 +3620,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="G4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="H4" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="K4" t="n" s="0">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -3655,34 +3655,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="C5" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="D5" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="F5" t="n" s="0">
-        <v>22.0</v>
+        <v>52.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>13.0</v>
+        <v>52.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3690,34 +3690,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -3725,34 +3725,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>18.0</v>
+        <v>82.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="G7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="H7" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="K7" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3760,34 +3760,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -3795,34 +3795,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>41.0</v>
+        <v>18.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>51.0</v>
+        <v>28.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>58.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3830,34 +3830,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>27.0</v>
+        <v>50.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>62.0</v>
+        <v>13.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>10.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3865,34 +3865,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>63.0</v>
+        <v>17.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3900,34 +3900,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="C12" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="D12" t="n" s="0">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>32.0</v>
+        <v>17.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>51.0</v>
+        <v>16.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>79.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -3953,34 +3953,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="D1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E1" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="F1" t="n" s="0">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3988,34 +3988,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>37.0</v>
+        <v>7.0</v>
       </c>
       <c r="C2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="I2" t="n" s="0">
-        <v>17.0</v>
+        <v>63.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -4023,34 +4023,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>42.0</v>
+        <v>8.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>38.0</v>
+        <v>20.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4058,34 +4058,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>64.0</v>
+        <v>14.0</v>
       </c>
       <c r="F4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="K4" t="n" s="0">
-        <v>35.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4093,34 +4093,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>38.0</v>
+        <v>15.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>47.0</v>
+        <v>20.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4128,34 +4128,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>58.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>51.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>49.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>58.0</v>
-      </c>
       <c r="K6" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4163,34 +4163,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>26.0</v>
+        <v>55.0</v>
       </c>
       <c r="E7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="F7" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>84.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>50.0</v>
-      </c>
       <c r="K7" t="n" s="0">
-        <v>48.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -4198,34 +4198,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>141.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -4233,34 +4233,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>51.0</v>
+        <v>107.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>36.0</v>
+        <v>22.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>49.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>66.0</v>
+        <v>11.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>32.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -4268,34 +4268,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>94.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>44.0</v>
+        <v>76.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>63.0</v>
+        <v>11.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -4303,34 +4303,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C11" t="n" s="0">
-        <v>49.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="H11" t="n" s="0">
-        <v>19.0</v>
+        <v>51.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>69.0</v>
+        <v>18.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4338,34 +4338,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -4391,34 +4391,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="D1" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="E1" t="n" s="0">
+      <c r="I1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="F1" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>22.0</v>
-      </c>
       <c r="K1" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -4426,34 +4426,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>54.0</v>
+        <v>16.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>18.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -4461,34 +4461,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>54.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>291.0</v>
+        <v>13.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4496,34 +4496,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>36.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="E4" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>29.0</v>
-      </c>
       <c r="I4" t="n" s="0">
-        <v>15.0</v>
+        <v>76.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>57.0</v>
+        <v>10.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4531,34 +4531,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>47.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>280.0</v>
+        <v>21.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>29.0</v>
+        <v>65.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4566,34 +4566,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>54.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>52.0</v>
+        <v>11.0</v>
       </c>
       <c r="D6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="E6" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>63.0</v>
-      </c>
       <c r="H6" t="n" s="0">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>73.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4601,34 +4601,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>123.0</v>
+        <v>11.0</v>
       </c>
       <c r="C7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="D7" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="E7" t="n" s="0">
-        <v>83.0</v>
+        <v>28.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>67.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -4636,34 +4636,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>44.0</v>
+        <v>10.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>86.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>71.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -4671,34 +4671,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>47.0</v>
+        <v>23.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>116.0</v>
+        <v>12.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -4706,34 +4706,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>48.0</v>
+        <v>19.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>44.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>41.0</v>
+        <v>13.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>53.0</v>
+        <v>24.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>46.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>51.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -4741,34 +4741,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>65.0</v>
+        <v>76.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4776,34 +4776,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="D12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E12" t="n" s="0">
-        <v>64.0</v>
-      </c>
       <c r="F12" t="n" s="0">
-        <v>45.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>62.0</v>
+        <v>11.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>103.0</v>
+        <v>58.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>51.0</v>
+        <v>12.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MultiUserIncreasePr.xlsx
+++ b/documentation/MultiUserIncreasePr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC74C19-C976-3B4B-87D7-B70FBB524E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EE6389-2C89-1942-B7DC-6572FD25319C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,117 +450,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>26</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>11</v>
+      </c>
+      <c r="G1">
+        <v>17</v>
+      </c>
+      <c r="H1">
+        <v>27</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>70</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>22.7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>15.549999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +933,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,117 +945,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>2777</v>
+      </c>
+      <c r="C1">
+        <v>748</v>
+      </c>
+      <c r="D1">
+        <v>2334</v>
+      </c>
+      <c r="E1">
+        <v>25</v>
+      </c>
+      <c r="F1">
+        <v>1180</v>
+      </c>
+      <c r="G1">
+        <v>1810</v>
+      </c>
+      <c r="H1">
+        <v>2677</v>
+      </c>
+      <c r="I1">
+        <v>906</v>
+      </c>
+      <c r="J1">
+        <v>1977</v>
+      </c>
+      <c r="K1">
+        <v>400</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>1483.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>751</v>
+      </c>
+      <c r="C2">
+        <v>1933</v>
+      </c>
+      <c r="D2">
+        <v>791</v>
+      </c>
+      <c r="E2">
+        <v>3048</v>
+      </c>
+      <c r="F2">
+        <v>1728</v>
+      </c>
+      <c r="G2">
+        <v>1249</v>
+      </c>
+      <c r="H2">
+        <v>653</v>
+      </c>
+      <c r="I2">
+        <v>2925</v>
+      </c>
+      <c r="J2">
+        <v>1448</v>
+      </c>
+      <c r="K2">
+        <v>3011</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1753.7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>2397</v>
+      </c>
+      <c r="C3">
+        <v>1050</v>
+      </c>
+      <c r="D3">
+        <v>2062</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>929</v>
+      </c>
+      <c r="G3">
+        <v>1510</v>
+      </c>
+      <c r="H3">
+        <v>2319</v>
+      </c>
+      <c r="I3">
+        <v>771</v>
+      </c>
+      <c r="J3">
+        <v>1912</v>
+      </c>
+      <c r="K3">
+        <v>413</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1338.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>480</v>
+      </c>
+      <c r="C4">
+        <v>1742</v>
+      </c>
+      <c r="D4">
+        <v>780</v>
+      </c>
+      <c r="E4">
+        <v>2893</v>
+      </c>
+      <c r="F4">
+        <v>1874</v>
+      </c>
+      <c r="G4">
+        <v>1204</v>
+      </c>
+      <c r="H4">
+        <v>551</v>
+      </c>
+      <c r="I4">
+        <v>2382</v>
+      </c>
+      <c r="J4">
+        <v>1309</v>
+      </c>
+      <c r="K4">
+        <v>2854</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1606.9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>2542</v>
+      </c>
+      <c r="C5">
+        <v>1176</v>
+      </c>
+      <c r="D5">
+        <v>2213</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1026</v>
+      </c>
+      <c r="G5">
+        <v>1878</v>
+      </c>
+      <c r="H5">
+        <v>2461</v>
+      </c>
+      <c r="I5">
+        <v>883</v>
+      </c>
+      <c r="J5">
+        <v>2056</v>
+      </c>
+      <c r="K5">
+        <v>256</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1459.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>279</v>
+      </c>
+      <c r="C6">
+        <v>1756</v>
+      </c>
+      <c r="D6">
+        <v>817</v>
+      </c>
+      <c r="E6">
+        <v>3163</v>
+      </c>
+      <c r="F6">
+        <v>1759</v>
+      </c>
+      <c r="G6">
+        <v>1137</v>
+      </c>
+      <c r="H6">
+        <v>473</v>
+      </c>
+      <c r="I6">
+        <v>2252</v>
+      </c>
+      <c r="J6">
+        <v>1303</v>
+      </c>
+      <c r="K6">
+        <v>2616</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1555.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>2868</v>
+      </c>
+      <c r="C7">
+        <v>1120</v>
+      </c>
+      <c r="D7">
+        <v>2250</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>1091</v>
+      </c>
+      <c r="G7">
+        <v>1795</v>
+      </c>
+      <c r="H7">
+        <v>2547</v>
+      </c>
+      <c r="I7">
+        <v>1036</v>
+      </c>
+      <c r="J7">
+        <v>2278</v>
+      </c>
+      <c r="K7">
+        <v>205</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1528</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>1737</v>
+      </c>
+      <c r="D8">
+        <v>721</v>
+      </c>
+      <c r="E8">
+        <v>2953</v>
+      </c>
+      <c r="F8">
+        <v>1947</v>
+      </c>
+      <c r="G8">
+        <v>989</v>
+      </c>
+      <c r="H8">
+        <v>459</v>
+      </c>
+      <c r="I8">
+        <v>2311</v>
+      </c>
+      <c r="J8">
+        <v>914</v>
+      </c>
+      <c r="K8">
+        <v>2792</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1498.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>2862</v>
+      </c>
+      <c r="C9">
+        <v>1087</v>
+      </c>
+      <c r="D9">
+        <v>2299</v>
+      </c>
+      <c r="E9">
+        <v>260</v>
+      </c>
+      <c r="F9">
+        <v>819</v>
+      </c>
+      <c r="G9">
+        <v>2034</v>
+      </c>
+      <c r="H9">
+        <v>2740</v>
+      </c>
+      <c r="I9">
+        <v>999</v>
+      </c>
+      <c r="J9">
+        <v>2082</v>
+      </c>
+      <c r="K9">
+        <v>133</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1531.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>1950</v>
+      </c>
+      <c r="D10">
+        <v>765</v>
+      </c>
+      <c r="E10">
+        <v>2821</v>
+      </c>
+      <c r="F10">
+        <v>2276</v>
+      </c>
+      <c r="G10">
+        <v>1138</v>
+      </c>
+      <c r="H10">
+        <v>492</v>
+      </c>
+      <c r="I10">
+        <v>2433</v>
+      </c>
+      <c r="J10">
+        <v>897</v>
+      </c>
+      <c r="K10">
+        <v>2803</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1562.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>3034</v>
+      </c>
+      <c r="C11">
+        <v>1233</v>
+      </c>
+      <c r="D11">
+        <v>2208</v>
+      </c>
+      <c r="E11">
+        <v>318</v>
+      </c>
+      <c r="F11">
+        <v>935</v>
+      </c>
+      <c r="G11">
+        <v>1980</v>
+      </c>
+      <c r="H11">
+        <v>2731</v>
+      </c>
+      <c r="I11">
+        <v>765</v>
+      </c>
+      <c r="J11">
+        <v>2087</v>
+      </c>
+      <c r="K11">
+        <v>163</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1545.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>1754</v>
+      </c>
+      <c r="D12">
+        <v>798</v>
+      </c>
+      <c r="E12">
+        <v>3143</v>
+      </c>
+      <c r="F12">
+        <v>2127</v>
+      </c>
+      <c r="G12">
+        <v>1150</v>
+      </c>
+      <c r="H12">
+        <v>324</v>
+      </c>
+      <c r="I12">
+        <v>2360</v>
+      </c>
+      <c r="J12">
+        <v>732</v>
+      </c>
+      <c r="K12">
+        <v>3019</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1550</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>1534.4333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +1428,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,117 +1440,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>75</v>
+      </c>
+      <c r="G1">
+        <v>76</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>36</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>13</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L11" si="0">AVERAGE(B2:K2)</f>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>23.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>71</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>86</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>81</v>
+      </c>
+      <c r="K9">
+        <v>58</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>35.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>24.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>97</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(B12:K12)</f>
+        <v>23.4</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="M18" t="e">
+      <c r="M18">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>23.583333333333332</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +1923,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,114 +1935,474 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>51</v>
+      </c>
+      <c r="G1">
+        <v>105</v>
+      </c>
+      <c r="H1">
+        <v>95</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>13</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>157</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>63</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>22.8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>69</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>58.6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>375</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>82.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>339</v>
+      </c>
+      <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>112</v>
+      </c>
+      <c r="F8">
+        <v>291</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>101.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>207</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>154</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>217</v>
+      </c>
+      <c r="J9">
+        <v>72</v>
+      </c>
+      <c r="K9">
+        <v>136</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>103</v>
+      </c>
+      <c r="F10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>68.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>117</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>117</v>
+      </c>
+      <c r="G11">
+        <v>145</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>118</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>81.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>41.3</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M17" t="e">
+      <c r="M17">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>58.091666666666661</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +2415,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,117 +2427,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>28</v>
+      </c>
+      <c r="C1">
+        <v>342</v>
+      </c>
+      <c r="D1">
+        <v>86</v>
+      </c>
+      <c r="E1">
+        <v>55</v>
+      </c>
+      <c r="F1">
+        <v>335</v>
+      </c>
+      <c r="G1">
+        <v>181</v>
+      </c>
+      <c r="H1">
+        <v>145</v>
+      </c>
+      <c r="I1">
+        <v>56</v>
+      </c>
+      <c r="J1">
+        <v>166</v>
+      </c>
+      <c r="K1">
+        <v>28</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>142.19999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>346</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>107</v>
+      </c>
+      <c r="E2">
+        <v>443</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>141</v>
+      </c>
+      <c r="H2">
+        <v>229</v>
+      </c>
+      <c r="I2">
+        <v>207</v>
+      </c>
+      <c r="J2">
+        <v>54</v>
+      </c>
+      <c r="K2">
+        <v>170</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>188.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>413</v>
+      </c>
+      <c r="G3">
+        <v>243</v>
+      </c>
+      <c r="H3">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <v>160</v>
+      </c>
+      <c r="J3">
+        <v>117</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>285</v>
+      </c>
+      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>252</v>
+      </c>
+      <c r="F4">
+        <v>158</v>
+      </c>
+      <c r="G4">
+        <v>235</v>
+      </c>
+      <c r="H4">
+        <v>94</v>
+      </c>
+      <c r="I4">
+        <v>322</v>
+      </c>
+      <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>273</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>188.9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>249</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+      <c r="G5">
+        <v>248</v>
+      </c>
+      <c r="H5">
+        <v>84</v>
+      </c>
+      <c r="I5">
+        <v>126</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>106.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>176</v>
+      </c>
+      <c r="C6">
+        <v>168</v>
+      </c>
+      <c r="D6">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>69</v>
+      </c>
+      <c r="H6">
+        <v>119</v>
+      </c>
+      <c r="I6">
+        <v>234</v>
+      </c>
+      <c r="J6">
+        <v>89</v>
+      </c>
+      <c r="K6">
+        <v>315</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>140.1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>155</v>
+      </c>
+      <c r="D7">
+        <v>303</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>137</v>
+      </c>
+      <c r="G7">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>354</v>
+      </c>
+      <c r="I7">
+        <v>142</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>274</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>161.69999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>118</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>147</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>129</v>
+      </c>
+      <c r="E9">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <v>97</v>
+      </c>
+      <c r="H9">
+        <v>410</v>
+      </c>
+      <c r="I9">
+        <v>173</v>
+      </c>
+      <c r="J9">
+        <v>75</v>
+      </c>
+      <c r="K9">
+        <v>296</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>166.7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>201</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>147</v>
+      </c>
+      <c r="H10">
+        <v>486</v>
+      </c>
+      <c r="I10">
+        <v>390</v>
+      </c>
+      <c r="J10">
+        <v>124</v>
+      </c>
+      <c r="K10">
+        <v>316</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>181.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>271</v>
+      </c>
+      <c r="C11">
+        <v>162</v>
+      </c>
+      <c r="D11">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <v>152</v>
+      </c>
+      <c r="F11">
+        <v>345</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>379</v>
+      </c>
+      <c r="I11">
+        <v>240</v>
+      </c>
+      <c r="J11">
+        <v>176</v>
+      </c>
+      <c r="K11">
+        <v>101</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>206.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>113</v>
+      </c>
+      <c r="F12">
+        <v>82</v>
+      </c>
+      <c r="G12">
+        <v>365</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>116</v>
+      </c>
+      <c r="J12">
+        <v>147</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>111.5</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19" t="e">
+      <c r="L19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>150.19166666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +2910,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,117 +2922,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>195</v>
+      </c>
+      <c r="C1">
+        <v>373</v>
+      </c>
+      <c r="D1">
+        <v>350</v>
+      </c>
+      <c r="E1">
+        <v>527</v>
+      </c>
+      <c r="F1">
+        <v>423</v>
+      </c>
+      <c r="G1">
+        <v>175</v>
+      </c>
+      <c r="H1">
+        <v>292</v>
+      </c>
+      <c r="I1">
+        <v>524</v>
+      </c>
+      <c r="J1">
+        <v>217</v>
+      </c>
+      <c r="K1">
+        <v>282</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>473</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>306</v>
+      </c>
+      <c r="G2">
+        <v>475</v>
+      </c>
+      <c r="H2">
+        <v>361</v>
+      </c>
+      <c r="I2">
+        <v>660</v>
+      </c>
+      <c r="J2">
+        <v>562</v>
+      </c>
+      <c r="K2">
+        <v>219</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>349.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>163</v>
+      </c>
+      <c r="C3">
+        <v>519</v>
+      </c>
+      <c r="D3">
+        <v>571</v>
+      </c>
+      <c r="E3">
+        <v>523</v>
+      </c>
+      <c r="F3">
+        <v>393</v>
+      </c>
+      <c r="G3">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>315</v>
+      </c>
+      <c r="I3">
+        <v>616</v>
+      </c>
+      <c r="J3">
+        <v>173</v>
+      </c>
+      <c r="K3">
+        <v>556</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>396.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>525</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>279</v>
+      </c>
+      <c r="E4">
+        <v>198</v>
+      </c>
+      <c r="F4">
+        <v>364</v>
+      </c>
+      <c r="G4">
+        <v>524</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>498</v>
+      </c>
+      <c r="K4">
+        <v>154</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>277.10000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>509</v>
+      </c>
+      <c r="D5">
+        <v>291</v>
+      </c>
+      <c r="E5">
+        <v>331</v>
+      </c>
+      <c r="F5">
+        <v>124</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>472</v>
+      </c>
+      <c r="I5">
+        <v>645</v>
+      </c>
+      <c r="J5">
+        <v>138</v>
+      </c>
+      <c r="K5">
+        <v>501</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>318.10000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>724</v>
+      </c>
+      <c r="C6">
+        <v>669</v>
+      </c>
+      <c r="D6">
+        <v>573</v>
+      </c>
+      <c r="E6">
+        <v>470</v>
+      </c>
+      <c r="F6">
+        <v>675</v>
+      </c>
+      <c r="G6">
+        <v>663</v>
+      </c>
+      <c r="H6">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>547</v>
+      </c>
+      <c r="K6">
+        <v>242</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>466.3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>473</v>
+      </c>
+      <c r="D7">
+        <v>239</v>
+      </c>
+      <c r="E7">
+        <v>391</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>420</v>
+      </c>
+      <c r="I7">
+        <v>420</v>
+      </c>
+      <c r="J7">
+        <v>166</v>
+      </c>
+      <c r="K7">
+        <v>322</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>264.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>602</v>
+      </c>
+      <c r="C8">
+        <v>197</v>
+      </c>
+      <c r="D8">
+        <v>419</v>
+      </c>
+      <c r="E8">
+        <v>433</v>
+      </c>
+      <c r="F8">
+        <v>775</v>
+      </c>
+      <c r="G8">
+        <v>419</v>
+      </c>
+      <c r="H8">
+        <v>95</v>
+      </c>
+      <c r="I8">
+        <v>658</v>
+      </c>
+      <c r="J8">
+        <v>302</v>
+      </c>
+      <c r="K8">
+        <v>385</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>428.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>369</v>
+      </c>
+      <c r="D9">
+        <v>261</v>
+      </c>
+      <c r="E9">
+        <v>260</v>
+      </c>
+      <c r="F9">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>222</v>
+      </c>
+      <c r="H9">
+        <v>526</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>453</v>
+      </c>
+      <c r="K9">
+        <v>204</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>248.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>547</v>
+      </c>
+      <c r="C10">
+        <v>264</v>
+      </c>
+      <c r="D10">
+        <v>375</v>
+      </c>
+      <c r="E10">
+        <v>475</v>
+      </c>
+      <c r="F10">
+        <v>483</v>
+      </c>
+      <c r="G10">
+        <v>298</v>
+      </c>
+      <c r="H10">
+        <v>84</v>
+      </c>
+      <c r="I10">
+        <v>678</v>
+      </c>
+      <c r="J10">
+        <v>185</v>
+      </c>
+      <c r="K10">
+        <v>320</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>370.9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>340</v>
+      </c>
+      <c r="C11">
+        <v>346</v>
+      </c>
+      <c r="D11">
+        <v>182</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>399</v>
+      </c>
+      <c r="H11">
+        <v>448</v>
+      </c>
+      <c r="I11">
+        <v>650</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>485</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>201</v>
+      </c>
+      <c r="C12">
+        <v>312</v>
+      </c>
+      <c r="D12">
+        <v>495</v>
+      </c>
+      <c r="E12">
+        <v>622</v>
+      </c>
+      <c r="F12">
+        <v>674</v>
+      </c>
+      <c r="G12">
+        <v>88</v>
+      </c>
+      <c r="H12">
+        <v>187</v>
+      </c>
+      <c r="I12">
+        <v>788</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>304</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>397.1</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>345.45000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +3405,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,117 +3417,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>163</v>
+      </c>
+      <c r="C1">
+        <v>762</v>
+      </c>
+      <c r="D1">
+        <v>202</v>
+      </c>
+      <c r="E1">
+        <v>455</v>
+      </c>
+      <c r="F1">
+        <v>376</v>
+      </c>
+      <c r="G1">
+        <v>678</v>
+      </c>
+      <c r="H1">
+        <v>611</v>
+      </c>
+      <c r="I1">
+        <v>97</v>
+      </c>
+      <c r="J1">
+        <v>545</v>
+      </c>
+      <c r="K1">
+        <v>442</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>433.1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>792</v>
+      </c>
+      <c r="C2">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>853</v>
+      </c>
+      <c r="E2">
+        <v>254</v>
+      </c>
+      <c r="F2">
+        <v>825</v>
+      </c>
+      <c r="G2">
+        <v>216</v>
+      </c>
+      <c r="H2">
+        <v>181</v>
+      </c>
+      <c r="I2">
+        <v>788</v>
+      </c>
+      <c r="J2">
+        <v>256</v>
+      </c>
+      <c r="K2">
+        <v>653</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>495.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>196</v>
+      </c>
+      <c r="C3">
+        <v>742</v>
+      </c>
+      <c r="D3">
+        <v>169</v>
+      </c>
+      <c r="E3">
+        <v>422</v>
+      </c>
+      <c r="F3">
+        <v>397</v>
+      </c>
+      <c r="G3">
+        <v>738</v>
+      </c>
+      <c r="H3">
+        <v>706</v>
+      </c>
+      <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>632</v>
+      </c>
+      <c r="K3">
+        <v>464</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>454.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>739</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>724</v>
+      </c>
+      <c r="E4">
+        <v>264</v>
+      </c>
+      <c r="F4">
+        <v>596</v>
+      </c>
+      <c r="G4">
+        <v>236</v>
+      </c>
+      <c r="H4">
+        <v>182</v>
+      </c>
+      <c r="I4">
+        <v>991</v>
+      </c>
+      <c r="J4">
+        <v>152</v>
+      </c>
+      <c r="K4">
+        <v>586</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>925</v>
+      </c>
+      <c r="D5">
+        <v>248</v>
+      </c>
+      <c r="E5">
+        <v>650</v>
+      </c>
+      <c r="F5">
+        <v>245</v>
+      </c>
+      <c r="G5">
+        <v>726</v>
+      </c>
+      <c r="H5">
+        <v>776</v>
+      </c>
+      <c r="I5">
+        <v>84</v>
+      </c>
+      <c r="J5">
+        <v>717</v>
+      </c>
+      <c r="K5">
+        <v>388</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>500.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>494</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>621</v>
+      </c>
+      <c r="E6">
+        <v>316</v>
+      </c>
+      <c r="F6">
+        <v>666</v>
+      </c>
+      <c r="G6">
+        <v>231</v>
+      </c>
+      <c r="H6">
+        <v>170</v>
+      </c>
+      <c r="I6">
+        <v>697</v>
+      </c>
+      <c r="J6">
+        <v>248</v>
+      </c>
+      <c r="K6">
+        <v>622</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>231</v>
+      </c>
+      <c r="C7">
+        <v>918</v>
+      </c>
+      <c r="D7">
+        <v>254</v>
+      </c>
+      <c r="E7">
+        <v>756</v>
+      </c>
+      <c r="F7">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>745</v>
+      </c>
+      <c r="H7">
+        <v>779</v>
+      </c>
+      <c r="I7">
+        <v>287</v>
+      </c>
+      <c r="J7">
+        <v>692</v>
+      </c>
+      <c r="K7">
+        <v>505</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>534.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>806</v>
+      </c>
+      <c r="C8">
+        <v>822</v>
+      </c>
+      <c r="D8">
+        <v>739</v>
+      </c>
+      <c r="E8">
+        <v>206</v>
+      </c>
+      <c r="F8">
+        <v>779</v>
+      </c>
+      <c r="G8">
+        <v>369</v>
+      </c>
+      <c r="H8">
+        <v>260</v>
+      </c>
+      <c r="I8">
+        <v>619</v>
+      </c>
+      <c r="J8">
+        <v>353</v>
+      </c>
+      <c r="K8">
+        <v>502</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>545.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>146</v>
+      </c>
+      <c r="D9">
+        <v>197</v>
+      </c>
+      <c r="E9">
+        <v>908</v>
+      </c>
+      <c r="F9">
+        <v>216</v>
+      </c>
+      <c r="G9">
+        <v>770</v>
+      </c>
+      <c r="H9">
+        <v>577</v>
+      </c>
+      <c r="I9">
+        <v>513</v>
+      </c>
+      <c r="J9">
+        <v>701</v>
+      </c>
+      <c r="K9">
+        <v>480</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>635</v>
+      </c>
+      <c r="C10">
+        <v>708</v>
+      </c>
+      <c r="D10">
+        <v>812</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="F10">
+        <v>679</v>
+      </c>
+      <c r="G10">
+        <v>313</v>
+      </c>
+      <c r="H10">
+        <v>379</v>
+      </c>
+      <c r="I10">
+        <v>455</v>
+      </c>
+      <c r="J10">
+        <v>528</v>
+      </c>
+      <c r="K10">
+        <v>386</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>500.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>206</v>
+      </c>
+      <c r="C11">
+        <v>211</v>
+      </c>
+      <c r="D11">
+        <v>171</v>
+      </c>
+      <c r="E11">
+        <v>764</v>
+      </c>
+      <c r="F11">
+        <v>440</v>
+      </c>
+      <c r="G11">
+        <v>510</v>
+      </c>
+      <c r="H11">
+        <v>463</v>
+      </c>
+      <c r="I11">
+        <v>562</v>
+      </c>
+      <c r="J11">
+        <v>436</v>
+      </c>
+      <c r="K11">
+        <v>461</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>422.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>644</v>
+      </c>
+      <c r="C12">
+        <v>715</v>
+      </c>
+      <c r="D12">
+        <v>869</v>
+      </c>
+      <c r="E12">
+        <v>264</v>
+      </c>
+      <c r="F12">
+        <v>764</v>
+      </c>
+      <c r="G12">
+        <v>476</v>
+      </c>
+      <c r="H12">
+        <v>738</v>
+      </c>
+      <c r="I12">
+        <v>308</v>
+      </c>
+      <c r="J12">
+        <v>327</v>
+      </c>
+      <c r="K12">
+        <v>453</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>555.79999999999995</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="M18" t="e">
+      <c r="M18">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>481.30833333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +3900,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,117 +3912,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>170</v>
+      </c>
+      <c r="C1">
+        <v>548</v>
+      </c>
+      <c r="D1">
+        <v>626</v>
+      </c>
+      <c r="E1">
+        <v>66</v>
+      </c>
+      <c r="F1">
+        <v>693</v>
+      </c>
+      <c r="G1">
+        <v>436</v>
+      </c>
+      <c r="H1">
+        <v>751</v>
+      </c>
+      <c r="I1">
+        <v>679</v>
+      </c>
+      <c r="J1">
+        <v>203</v>
+      </c>
+      <c r="K1">
+        <v>885</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>505.7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>1158</v>
+      </c>
+      <c r="C2">
+        <v>794</v>
+      </c>
+      <c r="D2">
+        <v>592</v>
+      </c>
+      <c r="E2">
+        <v>1088</v>
+      </c>
+      <c r="F2">
+        <v>475</v>
+      </c>
+      <c r="G2">
+        <v>918</v>
+      </c>
+      <c r="H2">
+        <v>514</v>
+      </c>
+      <c r="I2">
+        <v>492</v>
+      </c>
+      <c r="J2">
+        <v>1142</v>
+      </c>
+      <c r="K2">
+        <v>216</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>738.9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>153</v>
+      </c>
+      <c r="C3">
+        <v>787</v>
+      </c>
+      <c r="D3">
+        <v>792</v>
+      </c>
+      <c r="E3">
+        <v>217</v>
+      </c>
+      <c r="F3">
+        <v>727</v>
+      </c>
+      <c r="G3">
+        <v>584</v>
+      </c>
+      <c r="H3">
+        <v>765</v>
+      </c>
+      <c r="I3">
+        <v>822</v>
+      </c>
+      <c r="J3">
+        <v>119</v>
+      </c>
+      <c r="K3">
+        <v>955</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>592.1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>1154</v>
+      </c>
+      <c r="C4">
+        <v>539</v>
+      </c>
+      <c r="D4">
+        <v>458</v>
+      </c>
+      <c r="E4">
+        <v>1207</v>
+      </c>
+      <c r="F4">
+        <v>675</v>
+      </c>
+      <c r="G4">
+        <v>706</v>
+      </c>
+      <c r="H4">
+        <v>444</v>
+      </c>
+      <c r="I4">
+        <v>592</v>
+      </c>
+      <c r="J4">
+        <v>1323</v>
+      </c>
+      <c r="K4">
+        <v>269</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>736.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>208</v>
+      </c>
+      <c r="C5">
+        <v>533</v>
+      </c>
+      <c r="D5">
+        <v>806</v>
+      </c>
+      <c r="E5">
+        <v>172</v>
+      </c>
+      <c r="F5">
+        <v>650</v>
+      </c>
+      <c r="G5">
+        <v>509</v>
+      </c>
+      <c r="H5">
+        <v>940</v>
+      </c>
+      <c r="I5">
+        <v>674</v>
+      </c>
+      <c r="J5">
+        <v>186</v>
+      </c>
+      <c r="K5">
+        <v>1010</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>568.79999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>874</v>
+      </c>
+      <c r="C6">
+        <v>849</v>
+      </c>
+      <c r="D6">
+        <v>468</v>
+      </c>
+      <c r="E6">
+        <v>1262</v>
+      </c>
+      <c r="F6">
+        <v>738</v>
+      </c>
+      <c r="G6">
+        <v>975</v>
+      </c>
+      <c r="H6">
+        <v>301</v>
+      </c>
+      <c r="I6">
+        <v>657</v>
+      </c>
+      <c r="J6">
+        <v>1103</v>
+      </c>
+      <c r="K6">
+        <v>350</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>757.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>365</v>
+      </c>
+      <c r="C7">
+        <v>392</v>
+      </c>
+      <c r="D7">
+        <v>682</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <v>674</v>
+      </c>
+      <c r="G7">
+        <v>503</v>
+      </c>
+      <c r="H7">
+        <v>836</v>
+      </c>
+      <c r="I7">
+        <v>696</v>
+      </c>
+      <c r="J7">
+        <v>171</v>
+      </c>
+      <c r="K7">
+        <v>774</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>525.29999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>897</v>
+      </c>
+      <c r="C8">
+        <v>1055</v>
+      </c>
+      <c r="D8">
+        <v>648</v>
+      </c>
+      <c r="E8">
+        <v>1132</v>
+      </c>
+      <c r="F8">
+        <v>470</v>
+      </c>
+      <c r="G8">
+        <v>764</v>
+      </c>
+      <c r="H8">
+        <v>379</v>
+      </c>
+      <c r="I8">
+        <v>420</v>
+      </c>
+      <c r="J8">
+        <v>1105</v>
+      </c>
+      <c r="K8">
+        <v>557</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>742.7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>584</v>
+      </c>
+      <c r="C9">
+        <v>420</v>
+      </c>
+      <c r="D9">
+        <v>696</v>
+      </c>
+      <c r="E9">
+        <v>366</v>
+      </c>
+      <c r="F9">
+        <v>574</v>
+      </c>
+      <c r="G9">
+        <v>692</v>
+      </c>
+      <c r="H9">
+        <v>1157</v>
+      </c>
+      <c r="I9">
+        <v>1020</v>
+      </c>
+      <c r="J9">
+        <v>175</v>
+      </c>
+      <c r="K9">
+        <v>410</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>609.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>770</v>
+      </c>
+      <c r="C10">
+        <v>1122</v>
+      </c>
+      <c r="D10">
+        <v>459</v>
+      </c>
+      <c r="E10">
+        <v>1095</v>
+      </c>
+      <c r="F10">
+        <v>388</v>
+      </c>
+      <c r="G10">
+        <v>626</v>
+      </c>
+      <c r="H10">
+        <v>315</v>
+      </c>
+      <c r="I10">
+        <v>244</v>
+      </c>
+      <c r="J10">
+        <v>1384</v>
+      </c>
+      <c r="K10">
+        <v>829</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>723.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>441</v>
+      </c>
+      <c r="C11">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>731</v>
+      </c>
+      <c r="E11">
+        <v>213</v>
+      </c>
+      <c r="F11">
+        <v>1005</v>
+      </c>
+      <c r="G11">
+        <v>563</v>
+      </c>
+      <c r="H11">
+        <v>1082</v>
+      </c>
+      <c r="I11">
+        <v>1277</v>
+      </c>
+      <c r="J11">
+        <v>276</v>
+      </c>
+      <c r="K11">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>620.20000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>1007</v>
+      </c>
+      <c r="C12">
+        <v>1104</v>
+      </c>
+      <c r="D12">
+        <v>601</v>
+      </c>
+      <c r="E12">
+        <v>1085</v>
+      </c>
+      <c r="F12">
+        <v>259</v>
+      </c>
+      <c r="G12">
+        <v>666</v>
+      </c>
+      <c r="H12">
+        <v>179</v>
+      </c>
+      <c r="I12">
+        <v>355</v>
+      </c>
+      <c r="J12">
+        <v>1344</v>
+      </c>
+      <c r="K12">
+        <v>1164</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>776.4</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>658.09166666666658</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +4395,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K13"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,117 +4407,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>671</v>
+      </c>
+      <c r="C1">
+        <v>590</v>
+      </c>
+      <c r="D1">
+        <v>626</v>
+      </c>
+      <c r="E1">
+        <v>1608</v>
+      </c>
+      <c r="F1">
+        <v>1289</v>
+      </c>
+      <c r="G1">
+        <v>1026</v>
+      </c>
+      <c r="H1">
+        <v>776</v>
+      </c>
+      <c r="I1">
+        <v>1339</v>
+      </c>
+      <c r="J1">
+        <v>899</v>
+      </c>
+      <c r="K1">
+        <v>825</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>964.9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>1037</v>
+      </c>
+      <c r="C2">
+        <v>1275</v>
+      </c>
+      <c r="D2">
+        <v>1244</v>
+      </c>
+      <c r="E2">
+        <v>141</v>
+      </c>
+      <c r="F2">
+        <v>363</v>
+      </c>
+      <c r="G2">
+        <v>628</v>
+      </c>
+      <c r="H2">
+        <v>839</v>
+      </c>
+      <c r="I2">
+        <v>567</v>
+      </c>
+      <c r="J2">
+        <v>838</v>
+      </c>
+      <c r="K2">
+        <v>831</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>776.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>760</v>
+      </c>
+      <c r="C3">
+        <v>545</v>
+      </c>
+      <c r="D3">
+        <v>548</v>
+      </c>
+      <c r="E3">
+        <v>1428</v>
+      </c>
+      <c r="F3">
+        <v>1441</v>
+      </c>
+      <c r="G3">
+        <v>1280</v>
+      </c>
+      <c r="H3">
+        <v>999</v>
+      </c>
+      <c r="I3">
+        <v>1349</v>
+      </c>
+      <c r="J3">
+        <v>1031</v>
+      </c>
+      <c r="K3">
+        <v>952</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1033.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>895</v>
+      </c>
+      <c r="C4">
+        <v>1138</v>
+      </c>
+      <c r="D4">
+        <v>1047</v>
+      </c>
+      <c r="E4">
+        <v>341</v>
+      </c>
+      <c r="F4">
+        <v>627</v>
+      </c>
+      <c r="G4">
+        <v>694</v>
+      </c>
+      <c r="H4">
+        <v>624</v>
+      </c>
+      <c r="I4">
+        <v>506</v>
+      </c>
+      <c r="J4">
+        <v>880</v>
+      </c>
+      <c r="K4">
+        <v>1009</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>776.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>817</v>
+      </c>
+      <c r="C5">
+        <v>598</v>
+      </c>
+      <c r="D5">
+        <v>522</v>
+      </c>
+      <c r="E5">
+        <v>1259</v>
+      </c>
+      <c r="F5">
+        <v>1289</v>
+      </c>
+      <c r="G5">
+        <v>1159</v>
+      </c>
+      <c r="H5">
+        <v>986</v>
+      </c>
+      <c r="I5">
+        <v>1173</v>
+      </c>
+      <c r="J5">
+        <v>985</v>
+      </c>
+      <c r="K5">
+        <v>926</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>971.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>775</v>
+      </c>
+      <c r="C6">
+        <v>1252</v>
+      </c>
+      <c r="D6">
+        <v>1127</v>
+      </c>
+      <c r="E6">
+        <v>786</v>
+      </c>
+      <c r="F6">
+        <v>607</v>
+      </c>
+      <c r="G6">
+        <v>494</v>
+      </c>
+      <c r="H6">
+        <v>726</v>
+      </c>
+      <c r="I6">
+        <v>566</v>
+      </c>
+      <c r="J6">
+        <v>869</v>
+      </c>
+      <c r="K6">
+        <v>1174</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>837.6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>845</v>
+      </c>
+      <c r="C7">
+        <v>494</v>
+      </c>
+      <c r="D7">
+        <v>534</v>
+      </c>
+      <c r="E7">
+        <v>938</v>
+      </c>
+      <c r="F7">
+        <v>1182</v>
+      </c>
+      <c r="G7">
+        <v>1311</v>
+      </c>
+      <c r="H7">
+        <v>1025</v>
+      </c>
+      <c r="I7">
+        <v>1425</v>
+      </c>
+      <c r="J7">
+        <v>927</v>
+      </c>
+      <c r="K7">
+        <v>783</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>946.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>860</v>
+      </c>
+      <c r="C8">
+        <v>1147</v>
+      </c>
+      <c r="D8">
+        <v>1126</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <v>695</v>
+      </c>
+      <c r="G8">
+        <v>629</v>
+      </c>
+      <c r="H8">
+        <v>485</v>
+      </c>
+      <c r="I8">
+        <v>512</v>
+      </c>
+      <c r="J8">
+        <v>633</v>
+      </c>
+      <c r="K8">
+        <v>1338</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>802.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1061</v>
+      </c>
+      <c r="C9">
+        <v>643</v>
+      </c>
+      <c r="D9">
+        <v>763</v>
+      </c>
+      <c r="E9">
+        <v>1262</v>
+      </c>
+      <c r="F9">
+        <v>1048</v>
+      </c>
+      <c r="G9">
+        <v>1229</v>
+      </c>
+      <c r="H9">
+        <v>1322</v>
+      </c>
+      <c r="I9">
+        <v>1460</v>
+      </c>
+      <c r="J9">
+        <v>1133</v>
+      </c>
+      <c r="K9">
+        <v>666</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1058.7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>1130</v>
+      </c>
+      <c r="C10">
+        <v>1017</v>
+      </c>
+      <c r="D10">
+        <v>842</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10">
+        <v>931</v>
+      </c>
+      <c r="G10">
+        <v>635</v>
+      </c>
+      <c r="H10">
+        <v>513</v>
+      </c>
+      <c r="I10">
+        <v>447</v>
+      </c>
+      <c r="J10">
+        <v>730</v>
+      </c>
+      <c r="K10">
+        <v>1223</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>806.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>669</v>
+      </c>
+      <c r="C11">
+        <v>725</v>
+      </c>
+      <c r="D11">
+        <v>634</v>
+      </c>
+      <c r="E11">
+        <v>1340</v>
+      </c>
+      <c r="F11">
+        <v>1170</v>
+      </c>
+      <c r="G11">
+        <v>1022</v>
+      </c>
+      <c r="H11">
+        <v>1610</v>
+      </c>
+      <c r="I11">
+        <v>1453</v>
+      </c>
+      <c r="J11">
+        <v>1263</v>
+      </c>
+      <c r="K11">
+        <v>583</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1046.9000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>868</v>
+      </c>
+      <c r="C12">
+        <v>1045</v>
+      </c>
+      <c r="D12">
+        <v>901</v>
+      </c>
+      <c r="E12">
+        <v>315</v>
+      </c>
+      <c r="F12">
+        <v>638</v>
+      </c>
+      <c r="G12">
+        <v>918</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>337</v>
+      </c>
+      <c r="J12">
+        <v>513</v>
+      </c>
+      <c r="K12">
+        <v>1574</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>740.9</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>896.81666666666661</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +4890,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,117 +4902,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>1792</v>
+      </c>
+      <c r="C1">
+        <v>84</v>
+      </c>
+      <c r="D1">
+        <v>722</v>
+      </c>
+      <c r="E1">
+        <v>1208</v>
+      </c>
+      <c r="F1">
+        <v>1851</v>
+      </c>
+      <c r="G1">
+        <v>1940</v>
+      </c>
+      <c r="H1">
+        <v>2352</v>
+      </c>
+      <c r="I1">
+        <v>299</v>
+      </c>
+      <c r="J1">
+        <v>909</v>
+      </c>
+      <c r="K1">
+        <v>1615</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>1277.2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>445</v>
+      </c>
+      <c r="C2">
+        <v>2051</v>
+      </c>
+      <c r="D2">
+        <v>1431</v>
+      </c>
+      <c r="E2">
+        <v>1147</v>
+      </c>
+      <c r="F2">
+        <v>513</v>
+      </c>
+      <c r="G2">
+        <v>337</v>
+      </c>
+      <c r="H2">
+        <v>2461</v>
+      </c>
+      <c r="I2">
+        <v>2090</v>
+      </c>
+      <c r="J2">
+        <v>1764</v>
+      </c>
+      <c r="K2">
+        <v>777</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1301.5999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1933</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>692</v>
+      </c>
+      <c r="E3">
+        <v>978</v>
+      </c>
+      <c r="F3">
+        <v>1671</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>324</v>
+      </c>
+      <c r="J3">
+        <v>898</v>
+      </c>
+      <c r="K3">
+        <v>1550</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1017.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>349</v>
+      </c>
+      <c r="C4">
+        <v>1943</v>
+      </c>
+      <c r="D4">
+        <v>1335</v>
+      </c>
+      <c r="E4">
+        <v>1287</v>
+      </c>
+      <c r="F4">
+        <v>477</v>
+      </c>
+      <c r="G4">
+        <v>475</v>
+      </c>
+      <c r="H4">
+        <v>2259</v>
+      </c>
+      <c r="I4">
+        <v>2271</v>
+      </c>
+      <c r="J4">
+        <v>1476</v>
+      </c>
+      <c r="K4">
+        <v>885</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1275.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>2151</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+      <c r="D5">
+        <v>825</v>
+      </c>
+      <c r="E5">
+        <v>1101</v>
+      </c>
+      <c r="F5">
+        <v>1791</v>
+      </c>
+      <c r="G5">
+        <v>1836</v>
+      </c>
+      <c r="H5">
+        <v>102</v>
+      </c>
+      <c r="I5">
+        <v>376</v>
+      </c>
+      <c r="J5">
+        <v>1264</v>
+      </c>
+      <c r="K5">
+        <v>1725</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1134.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>474</v>
+      </c>
+      <c r="C6">
+        <v>2036</v>
+      </c>
+      <c r="D6">
+        <v>1459</v>
+      </c>
+      <c r="E6">
+        <v>1152</v>
+      </c>
+      <c r="F6">
+        <v>728</v>
+      </c>
+      <c r="G6">
+        <v>427</v>
+      </c>
+      <c r="H6">
+        <v>2663</v>
+      </c>
+      <c r="I6">
+        <v>2271</v>
+      </c>
+      <c r="J6">
+        <v>1006</v>
+      </c>
+      <c r="K6">
+        <v>793</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1300.9000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>1874</v>
+      </c>
+      <c r="C7">
+        <v>378</v>
+      </c>
+      <c r="D7">
+        <v>820</v>
+      </c>
+      <c r="E7">
+        <v>1181</v>
+      </c>
+      <c r="F7">
+        <v>1671</v>
+      </c>
+      <c r="G7">
+        <v>1941</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>307</v>
+      </c>
+      <c r="J7">
+        <v>1327</v>
+      </c>
+      <c r="K7">
+        <v>1584</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1110.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>535</v>
+      </c>
+      <c r="C8">
+        <v>1739</v>
+      </c>
+      <c r="D8">
+        <v>1553</v>
+      </c>
+      <c r="E8">
+        <v>954</v>
+      </c>
+      <c r="F8">
+        <v>599</v>
+      </c>
+      <c r="G8">
+        <v>388</v>
+      </c>
+      <c r="H8">
+        <v>2283</v>
+      </c>
+      <c r="I8">
+        <v>1964</v>
+      </c>
+      <c r="J8">
+        <v>1176</v>
+      </c>
+      <c r="K8">
+        <v>1007</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1219.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1956</v>
+      </c>
+      <c r="C9">
+        <v>565</v>
+      </c>
+      <c r="D9">
+        <v>803</v>
+      </c>
+      <c r="E9">
+        <v>1656</v>
+      </c>
+      <c r="F9">
+        <v>1796</v>
+      </c>
+      <c r="G9">
+        <v>1955</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>352</v>
+      </c>
+      <c r="J9">
+        <v>1374</v>
+      </c>
+      <c r="K9">
+        <v>1483</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1196.4000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>580</v>
+      </c>
+      <c r="C10">
+        <v>1797</v>
+      </c>
+      <c r="D10">
+        <v>1675</v>
+      </c>
+      <c r="E10">
+        <v>829</v>
+      </c>
+      <c r="F10">
+        <v>815</v>
+      </c>
+      <c r="G10">
+        <v>366</v>
+      </c>
+      <c r="H10">
+        <v>2510</v>
+      </c>
+      <c r="I10">
+        <v>2165</v>
+      </c>
+      <c r="J10">
+        <v>1362</v>
+      </c>
+      <c r="K10">
+        <v>756</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1285.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1864</v>
+      </c>
+      <c r="C11">
+        <v>546</v>
+      </c>
+      <c r="D11">
+        <v>1016</v>
+      </c>
+      <c r="E11">
+        <v>1574</v>
+      </c>
+      <c r="F11">
+        <v>1708</v>
+      </c>
+      <c r="G11">
+        <v>2112</v>
+      </c>
+      <c r="H11">
+        <v>2582</v>
+      </c>
+      <c r="I11">
+        <v>353</v>
+      </c>
+      <c r="J11">
+        <v>1325</v>
+      </c>
+      <c r="K11">
+        <v>1525</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1460.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>480</v>
+      </c>
+      <c r="C12">
+        <v>1862</v>
+      </c>
+      <c r="D12">
+        <v>1448</v>
+      </c>
+      <c r="E12">
+        <v>839</v>
+      </c>
+      <c r="F12">
+        <v>568</v>
+      </c>
+      <c r="G12">
+        <v>298</v>
+      </c>
+      <c r="H12">
+        <v>2022</v>
+      </c>
+      <c r="I12">
+        <v>1736</v>
+      </c>
+      <c r="J12">
+        <v>1080</v>
+      </c>
+      <c r="K12">
+        <v>830</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1116.3</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
-        <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+      <c r="M19">
+        <f>AVERAGE(L1:L12,)</f>
+        <v>1130.5153846153844</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MultiUserIncreasePr.xlsx
+++ b/documentation/MultiUserIncreasePr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51262C7F-A292-2248-85B1-D36AC13ACA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E27FFD-568C-6343-8333-CCDD1681476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,117 +450,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>25</v>
+      </c>
+      <c r="F1">
+        <v>27</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>16</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>16</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>22.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>24.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>19.541666666666664</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +933,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,117 +945,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>1739</v>
+      </c>
+      <c r="C1">
+        <v>1427</v>
+      </c>
+      <c r="D1">
+        <v>637</v>
+      </c>
+      <c r="E1">
+        <v>720</v>
+      </c>
+      <c r="F1">
+        <v>971</v>
+      </c>
+      <c r="G1">
+        <v>631</v>
+      </c>
+      <c r="H1">
+        <v>670</v>
+      </c>
+      <c r="I1">
+        <v>1029</v>
+      </c>
+      <c r="J1">
+        <v>487</v>
+      </c>
+      <c r="K1">
+        <v>405</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>871.6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>398</v>
+      </c>
+      <c r="D2">
+        <v>1075</v>
+      </c>
+      <c r="E2">
+        <v>1094</v>
+      </c>
+      <c r="F2">
+        <v>813</v>
+      </c>
+      <c r="G2">
+        <v>997</v>
+      </c>
+      <c r="H2">
+        <v>1286</v>
+      </c>
+      <c r="I2">
+        <v>924</v>
+      </c>
+      <c r="J2">
+        <v>1430</v>
+      </c>
+      <c r="K2">
+        <v>1364</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>961.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3">
+        <v>1573</v>
+      </c>
+      <c r="D3">
+        <v>892</v>
+      </c>
+      <c r="E3">
+        <v>912</v>
+      </c>
+      <c r="F3">
+        <v>912</v>
+      </c>
+      <c r="G3">
+        <v>495</v>
+      </c>
+      <c r="H3">
+        <v>585</v>
+      </c>
+      <c r="I3">
+        <v>873</v>
+      </c>
+      <c r="J3">
+        <v>682</v>
+      </c>
+      <c r="K3">
+        <v>957</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>989.8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>194</v>
+      </c>
+      <c r="C4">
+        <v>362</v>
+      </c>
+      <c r="D4">
+        <v>1104</v>
+      </c>
+      <c r="E4">
+        <v>1288</v>
+      </c>
+      <c r="F4">
+        <v>963</v>
+      </c>
+      <c r="G4">
+        <v>1432</v>
+      </c>
+      <c r="H4">
+        <v>1245</v>
+      </c>
+      <c r="I4">
+        <v>950</v>
+      </c>
+      <c r="J4">
+        <v>1461</v>
+      </c>
+      <c r="K4">
+        <v>1119</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1011.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1867</v>
+      </c>
+      <c r="C5">
+        <v>1711</v>
+      </c>
+      <c r="D5">
+        <v>1121</v>
+      </c>
+      <c r="E5">
+        <v>782</v>
+      </c>
+      <c r="F5">
+        <v>699</v>
+      </c>
+      <c r="G5">
+        <v>640</v>
+      </c>
+      <c r="H5">
+        <v>562</v>
+      </c>
+      <c r="I5">
+        <v>767</v>
+      </c>
+      <c r="J5">
+        <v>484</v>
+      </c>
+      <c r="K5">
+        <v>1162</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>979.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>317</v>
+      </c>
+      <c r="C6">
+        <v>477</v>
+      </c>
+      <c r="D6">
+        <v>1198</v>
+      </c>
+      <c r="E6">
+        <v>1198</v>
+      </c>
+      <c r="F6">
+        <v>1133</v>
+      </c>
+      <c r="G6">
+        <v>1392</v>
+      </c>
+      <c r="H6">
+        <v>924</v>
+      </c>
+      <c r="I6">
+        <v>915</v>
+      </c>
+      <c r="J6">
+        <v>1540</v>
+      </c>
+      <c r="K6">
+        <v>1015</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1010.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>1435</v>
+      </c>
+      <c r="C7">
+        <v>1522</v>
+      </c>
+      <c r="D7">
+        <v>841</v>
+      </c>
+      <c r="E7">
+        <v>850</v>
+      </c>
+      <c r="F7">
+        <v>755</v>
+      </c>
+      <c r="G7">
+        <v>977</v>
+      </c>
+      <c r="H7">
+        <v>782</v>
+      </c>
+      <c r="I7">
+        <v>747</v>
+      </c>
+      <c r="J7">
+        <v>378</v>
+      </c>
+      <c r="K7">
+        <v>1101</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>938.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>562</v>
+      </c>
+      <c r="C8">
+        <v>823</v>
+      </c>
+      <c r="D8">
+        <v>1110</v>
+      </c>
+      <c r="E8">
+        <v>931</v>
+      </c>
+      <c r="F8">
+        <v>1158</v>
+      </c>
+      <c r="G8">
+        <v>1271</v>
+      </c>
+      <c r="H8">
+        <v>844</v>
+      </c>
+      <c r="I8">
+        <v>1070</v>
+      </c>
+      <c r="J8">
+        <v>1558</v>
+      </c>
+      <c r="K8">
+        <v>939</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1026.5999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1265</v>
+      </c>
+      <c r="C9">
+        <v>1444</v>
+      </c>
+      <c r="D9">
+        <v>675</v>
+      </c>
+      <c r="E9">
+        <v>1004</v>
+      </c>
+      <c r="F9">
+        <v>687</v>
+      </c>
+      <c r="G9">
+        <v>1076</v>
+      </c>
+      <c r="H9">
+        <v>1145</v>
+      </c>
+      <c r="I9">
+        <v>656</v>
+      </c>
+      <c r="J9">
+        <v>434</v>
+      </c>
+      <c r="K9">
+        <v>854</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>577</v>
+      </c>
+      <c r="C10">
+        <v>898</v>
+      </c>
+      <c r="D10">
+        <v>1150</v>
+      </c>
+      <c r="E10">
+        <v>958</v>
+      </c>
+      <c r="F10">
+        <v>1220</v>
+      </c>
+      <c r="G10">
+        <v>1415</v>
+      </c>
+      <c r="H10">
+        <v>670</v>
+      </c>
+      <c r="I10">
+        <v>1151</v>
+      </c>
+      <c r="J10">
+        <v>1752</v>
+      </c>
+      <c r="K10">
+        <v>1288</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1107.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1429</v>
+      </c>
+      <c r="C11">
+        <v>1187</v>
+      </c>
+      <c r="D11">
+        <v>606</v>
+      </c>
+      <c r="E11">
+        <v>963</v>
+      </c>
+      <c r="F11">
+        <v>860</v>
+      </c>
+      <c r="G11">
+        <v>573</v>
+      </c>
+      <c r="H11">
+        <v>1250</v>
+      </c>
+      <c r="I11">
+        <v>766</v>
+      </c>
+      <c r="J11">
+        <v>374</v>
+      </c>
+      <c r="K11">
+        <v>830</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>883.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>318</v>
+      </c>
+      <c r="C12">
+        <v>1023</v>
+      </c>
+      <c r="D12">
+        <v>1087</v>
+      </c>
+      <c r="E12">
+        <v>1015</v>
+      </c>
+      <c r="F12">
+        <v>971</v>
+      </c>
+      <c r="G12">
+        <v>1390</v>
+      </c>
+      <c r="H12">
+        <v>827</v>
+      </c>
+      <c r="I12">
+        <v>797</v>
+      </c>
+      <c r="J12">
+        <v>1429</v>
+      </c>
+      <c r="K12">
+        <v>1228</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1008.5</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>976.22499999999991</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +1428,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,117 +1440,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>65</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L11" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>57</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>44</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>33.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f>AVERAGE(B12:K12)</f>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="M18" t="e">
+      <c r="M18">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>19.000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +1923,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,114 +1935,474 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>17</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>44</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>39</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>11</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>14</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>51</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>62</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>34</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>22.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>68</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>28.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>278</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>125</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>61.9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>815</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M17" t="e">
+      <c r="M17">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>34.050000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +2415,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,117 +2427,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>52</v>
+      </c>
+      <c r="F1">
+        <v>14</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>9</v>
+      </c>
+      <c r="I1">
+        <v>17</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>106</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>37</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>27.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>22.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>79</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>28.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>28.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>116</v>
+      </c>
+      <c r="J10">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>147</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19" t="e">
+      <c r="L19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>28.500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +2910,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,117 +2922,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>21</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>41</v>
+      </c>
+      <c r="E1">
+        <v>13</v>
+      </c>
+      <c r="F1">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>21</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>15</v>
+      </c>
+      <c r="K1">
+        <v>34</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>28.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>33.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>87</v>
+      </c>
+      <c r="H9">
+        <v>110</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>51</v>
+      </c>
+      <c r="K9">
+        <v>161</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>92</v>
+      </c>
+      <c r="H10">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>52.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>125</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>37.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>58</v>
+      </c>
+      <c r="K12">
+        <v>128</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>37.55833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +3405,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,117 +3417,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>17</v>
+      </c>
+      <c r="D1">
+        <v>19</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <v>134</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>85</v>
+      </c>
+      <c r="J1">
+        <v>61</v>
+      </c>
+      <c r="K1">
+        <v>40</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>57</v>
+      </c>
+      <c r="J2">
+        <v>176</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>206</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>114</v>
+      </c>
+      <c r="K3">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>79</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>142</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>158</v>
+      </c>
+      <c r="H5">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>201</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>166</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>74</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>124</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>215</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>98</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <v>95</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>57.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>74</v>
+      </c>
+      <c r="G9">
+        <v>142</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>105</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>68.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>105</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>41</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>43.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>73</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>284</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>165</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>84.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>113</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>39</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>156</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>109</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>59.8</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="M18" t="e">
+      <c r="M18">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>61.291666666666657</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +3900,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,117 +3912,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>32</v>
+      </c>
+      <c r="C1">
+        <v>136</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>237</v>
+      </c>
+      <c r="F1">
+        <v>78</v>
+      </c>
+      <c r="G1">
+        <v>332</v>
+      </c>
+      <c r="H1">
+        <v>68</v>
+      </c>
+      <c r="I1">
+        <v>343</v>
+      </c>
+      <c r="J1">
+        <v>337</v>
+      </c>
+      <c r="K1">
+        <v>203</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>283</v>
+      </c>
+      <c r="D2">
+        <v>266</v>
+      </c>
+      <c r="E2">
+        <v>369</v>
+      </c>
+      <c r="F2">
+        <v>238</v>
+      </c>
+      <c r="G2">
+        <v>310</v>
+      </c>
+      <c r="H2">
+        <v>212</v>
+      </c>
+      <c r="I2">
+        <v>155</v>
+      </c>
+      <c r="J2">
+        <v>472</v>
+      </c>
+      <c r="K2">
+        <v>154</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>264.89999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>375</v>
+      </c>
+      <c r="F3">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>385</v>
+      </c>
+      <c r="K3">
+        <v>152</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>173.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>215</v>
+      </c>
+      <c r="C4">
+        <v>366</v>
+      </c>
+      <c r="D4">
+        <v>288</v>
+      </c>
+      <c r="E4">
+        <v>421</v>
+      </c>
+      <c r="F4">
+        <v>323</v>
+      </c>
+      <c r="G4">
+        <v>349</v>
+      </c>
+      <c r="H4">
+        <v>294</v>
+      </c>
+      <c r="I4">
+        <v>163</v>
+      </c>
+      <c r="J4">
+        <v>366</v>
+      </c>
+      <c r="K4">
+        <v>187</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>297.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>186</v>
+      </c>
+      <c r="C5">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>220</v>
+      </c>
+      <c r="F5">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>506</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <v>79</v>
+      </c>
+      <c r="J5">
+        <v>580</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>191.8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>410</v>
+      </c>
+      <c r="C6">
+        <v>345</v>
+      </c>
+      <c r="D6">
+        <v>311</v>
+      </c>
+      <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>459</v>
+      </c>
+      <c r="G6">
+        <v>466</v>
+      </c>
+      <c r="H6">
+        <v>439</v>
+      </c>
+      <c r="I6">
+        <v>118</v>
+      </c>
+      <c r="J6">
+        <v>479</v>
+      </c>
+      <c r="K6">
+        <v>432</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>368</v>
+      </c>
+      <c r="C7">
+        <v>137</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>253</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>179</v>
+      </c>
+      <c r="H7">
+        <v>127</v>
+      </c>
+      <c r="I7">
+        <v>170</v>
+      </c>
+      <c r="J7">
+        <v>557</v>
+      </c>
+      <c r="K7">
+        <v>566</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>248.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>181</v>
+      </c>
+      <c r="C8">
+        <v>199</v>
+      </c>
+      <c r="D8">
+        <v>537</v>
+      </c>
+      <c r="E8">
+        <v>232</v>
+      </c>
+      <c r="F8">
+        <v>508</v>
+      </c>
+      <c r="G8">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>396</v>
+      </c>
+      <c r="I8">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>443</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>262.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>369</v>
+      </c>
+      <c r="C9">
+        <v>139</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>182</v>
+      </c>
+      <c r="F9">
+        <v>116</v>
+      </c>
+      <c r="G9">
+        <v>55</v>
+      </c>
+      <c r="H9">
+        <v>127</v>
+      </c>
+      <c r="I9">
+        <v>600</v>
+      </c>
+      <c r="J9">
+        <v>446</v>
+      </c>
+      <c r="K9">
+        <v>432</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>253</v>
+      </c>
+      <c r="C10">
+        <v>271</v>
+      </c>
+      <c r="D10">
+        <v>496</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>346</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>375</v>
+      </c>
+      <c r="I10">
+        <v>124</v>
+      </c>
+      <c r="J10">
+        <v>334</v>
+      </c>
+      <c r="K10">
+        <v>199</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>243.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>452</v>
+      </c>
+      <c r="C11">
+        <v>177</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>309</v>
+      </c>
+      <c r="F11">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>217</v>
+      </c>
+      <c r="I11">
+        <v>519</v>
+      </c>
+      <c r="J11">
+        <v>202</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>222.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>177</v>
+      </c>
+      <c r="C12">
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>441</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>236</v>
+      </c>
+      <c r="G12">
+        <v>237</v>
+      </c>
+      <c r="H12">
+        <v>367</v>
+      </c>
+      <c r="I12">
+        <v>217</v>
+      </c>
+      <c r="J12">
+        <v>140</v>
+      </c>
+      <c r="K12">
+        <v>257</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>219.9</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>242.19999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +4395,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,117 +4407,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>384</v>
+      </c>
+      <c r="C1">
+        <v>34</v>
+      </c>
+      <c r="D1">
+        <v>687</v>
+      </c>
+      <c r="E1">
+        <v>102</v>
+      </c>
+      <c r="F1">
+        <v>333</v>
+      </c>
+      <c r="G1">
+        <v>379</v>
+      </c>
+      <c r="H1">
+        <v>646</v>
+      </c>
+      <c r="I1">
+        <v>356</v>
+      </c>
+      <c r="J1">
+        <v>158</v>
+      </c>
+      <c r="K1">
+        <v>223</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>330.2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>415</v>
+      </c>
+      <c r="C2">
+        <v>570</v>
+      </c>
+      <c r="D2">
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>553</v>
+      </c>
+      <c r="F2">
+        <v>378</v>
+      </c>
+      <c r="G2">
+        <v>681</v>
+      </c>
+      <c r="H2">
+        <v>198</v>
+      </c>
+      <c r="I2">
+        <v>222</v>
+      </c>
+      <c r="J2">
+        <v>176</v>
+      </c>
+      <c r="K2">
+        <v>814</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>414.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>533</v>
+      </c>
+      <c r="C3">
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <v>561</v>
+      </c>
+      <c r="E3">
+        <v>125</v>
+      </c>
+      <c r="F3">
+        <v>459</v>
+      </c>
+      <c r="G3">
+        <v>298</v>
+      </c>
+      <c r="H3">
+        <v>702</v>
+      </c>
+      <c r="I3">
+        <v>427</v>
+      </c>
+      <c r="J3">
+        <v>410</v>
+      </c>
+      <c r="K3">
+        <v>192</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>385.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>601</v>
+      </c>
+      <c r="D4">
+        <v>219</v>
+      </c>
+      <c r="E4">
+        <v>836</v>
+      </c>
+      <c r="F4">
+        <v>336</v>
+      </c>
+      <c r="G4">
+        <v>527</v>
+      </c>
+      <c r="H4">
+        <v>205</v>
+      </c>
+      <c r="I4">
+        <v>157</v>
+      </c>
+      <c r="J4">
+        <v>203</v>
+      </c>
+      <c r="K4">
+        <v>1088</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>441.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>356</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>397</v>
+      </c>
+      <c r="E5">
+        <v>317</v>
+      </c>
+      <c r="F5">
+        <v>514</v>
+      </c>
+      <c r="G5">
+        <v>112</v>
+      </c>
+      <c r="H5">
+        <v>700</v>
+      </c>
+      <c r="I5">
+        <v>469</v>
+      </c>
+      <c r="J5">
+        <v>543</v>
+      </c>
+      <c r="K5">
+        <v>168</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>377.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>455</v>
+      </c>
+      <c r="C6">
+        <v>827</v>
+      </c>
+      <c r="D6">
+        <v>604</v>
+      </c>
+      <c r="E6">
+        <v>562</v>
+      </c>
+      <c r="F6">
+        <v>559</v>
+      </c>
+      <c r="G6">
+        <v>626</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>187</v>
+      </c>
+      <c r="J6">
+        <v>313</v>
+      </c>
+      <c r="K6">
+        <v>811</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>519.1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>223</v>
+      </c>
+      <c r="C7">
+        <v>193</v>
+      </c>
+      <c r="D7">
+        <v>476</v>
+      </c>
+      <c r="E7">
+        <v>358</v>
+      </c>
+      <c r="F7">
+        <v>521</v>
+      </c>
+      <c r="G7">
+        <v>171</v>
+      </c>
+      <c r="H7">
+        <v>505</v>
+      </c>
+      <c r="I7">
+        <v>502</v>
+      </c>
+      <c r="J7">
+        <v>658</v>
+      </c>
+      <c r="K7">
+        <v>176</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>378.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>596</v>
+      </c>
+      <c r="C8">
+        <v>1051</v>
+      </c>
+      <c r="D8">
+        <v>463</v>
+      </c>
+      <c r="E8">
+        <v>552</v>
+      </c>
+      <c r="F8">
+        <v>474</v>
+      </c>
+      <c r="G8">
+        <v>823</v>
+      </c>
+      <c r="H8">
+        <v>295</v>
+      </c>
+      <c r="I8">
+        <v>212</v>
+      </c>
+      <c r="J8">
+        <v>469</v>
+      </c>
+      <c r="K8">
+        <v>629</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>556.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>553</v>
+      </c>
+      <c r="E9">
+        <v>299</v>
+      </c>
+      <c r="F9">
+        <v>722</v>
+      </c>
+      <c r="G9">
+        <v>145</v>
+      </c>
+      <c r="H9">
+        <v>604</v>
+      </c>
+      <c r="I9">
+        <v>429</v>
+      </c>
+      <c r="J9">
+        <v>701</v>
+      </c>
+      <c r="K9">
+        <v>112</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>386.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>525</v>
+      </c>
+      <c r="C10">
+        <v>728</v>
+      </c>
+      <c r="D10">
+        <v>483</v>
+      </c>
+      <c r="E10">
+        <v>462</v>
+      </c>
+      <c r="F10">
+        <v>631</v>
+      </c>
+      <c r="G10">
+        <v>818</v>
+      </c>
+      <c r="H10">
+        <v>193</v>
+      </c>
+      <c r="I10">
+        <v>332</v>
+      </c>
+      <c r="J10">
+        <v>633</v>
+      </c>
+      <c r="K10">
+        <v>639</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>544.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>382</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>251</v>
+      </c>
+      <c r="E11">
+        <v>257</v>
+      </c>
+      <c r="F11">
+        <v>591</v>
+      </c>
+      <c r="G11">
+        <v>267</v>
+      </c>
+      <c r="H11">
+        <v>663</v>
+      </c>
+      <c r="I11">
+        <v>428</v>
+      </c>
+      <c r="J11">
+        <v>562</v>
+      </c>
+      <c r="K11">
+        <v>177</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>366.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>602</v>
+      </c>
+      <c r="C12">
+        <v>566</v>
+      </c>
+      <c r="D12">
+        <v>503</v>
+      </c>
+      <c r="E12">
+        <v>550</v>
+      </c>
+      <c r="F12">
+        <v>329</v>
+      </c>
+      <c r="G12">
+        <v>672</v>
+      </c>
+      <c r="H12">
+        <v>244</v>
+      </c>
+      <c r="I12">
+        <v>359</v>
+      </c>
+      <c r="J12">
+        <v>608</v>
+      </c>
+      <c r="K12">
+        <v>754</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>518.70000000000005</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12)</f>
-        <v>#DIV/0!</v>
+        <v>434.875</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +4890,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,117 +4902,477 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>348</v>
+      </c>
+      <c r="C1">
+        <v>1230</v>
+      </c>
+      <c r="D1">
+        <v>1186</v>
+      </c>
+      <c r="E1">
+        <v>786</v>
+      </c>
+      <c r="F1">
+        <v>467</v>
+      </c>
+      <c r="G1">
+        <v>107</v>
+      </c>
+      <c r="H1">
+        <v>576</v>
+      </c>
+      <c r="I1">
+        <v>255</v>
+      </c>
+      <c r="J1">
+        <v>511</v>
+      </c>
+      <c r="K1">
+        <v>1153</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>661.9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>881</v>
+      </c>
+      <c r="C2">
+        <v>252</v>
+      </c>
+      <c r="D2">
+        <v>465</v>
+      </c>
+      <c r="E2">
+        <v>381</v>
+      </c>
+      <c r="F2">
+        <v>1055</v>
+      </c>
+      <c r="G2">
+        <v>1503</v>
+      </c>
+      <c r="H2">
+        <v>712</v>
+      </c>
+      <c r="I2">
+        <v>958</v>
+      </c>
+      <c r="J2">
+        <v>857</v>
+      </c>
+      <c r="K2">
+        <v>307</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>737.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>383</v>
+      </c>
+      <c r="C3">
+        <v>1448</v>
+      </c>
+      <c r="D3">
+        <v>825</v>
+      </c>
+      <c r="E3">
+        <v>906</v>
+      </c>
+      <c r="F3">
+        <v>668</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3">
+        <v>833</v>
+      </c>
+      <c r="I3">
+        <v>435</v>
+      </c>
+      <c r="J3">
+        <v>467</v>
+      </c>
+      <c r="K3">
+        <v>1216</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>730.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>1205</v>
+      </c>
+      <c r="C4">
+        <v>227</v>
+      </c>
+      <c r="D4">
+        <v>730</v>
+      </c>
+      <c r="E4">
+        <v>595</v>
+      </c>
+      <c r="F4">
+        <v>1004</v>
+      </c>
+      <c r="G4">
+        <v>1431</v>
+      </c>
+      <c r="H4">
+        <v>560</v>
+      </c>
+      <c r="I4">
+        <v>980</v>
+      </c>
+      <c r="J4">
+        <v>970</v>
+      </c>
+      <c r="K4">
+        <v>204</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>790.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>409</v>
+      </c>
+      <c r="C5">
+        <v>1213</v>
+      </c>
+      <c r="D5">
+        <v>583</v>
+      </c>
+      <c r="E5">
+        <v>674</v>
+      </c>
+      <c r="F5">
+        <v>843</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>893</v>
+      </c>
+      <c r="I5">
+        <v>422</v>
+      </c>
+      <c r="J5">
+        <v>350</v>
+      </c>
+      <c r="K5">
+        <v>1303</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>992</v>
+      </c>
+      <c r="C6">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>701</v>
+      </c>
+      <c r="E6">
+        <v>482</v>
+      </c>
+      <c r="F6">
+        <v>746</v>
+      </c>
+      <c r="G6">
+        <v>1415</v>
+      </c>
+      <c r="H6">
+        <v>310</v>
+      </c>
+      <c r="I6">
+        <v>884</v>
+      </c>
+      <c r="J6">
+        <v>999</v>
+      </c>
+      <c r="K6">
+        <v>194</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>317</v>
+      </c>
+      <c r="C7">
+        <v>1277</v>
+      </c>
+      <c r="D7">
+        <v>417</v>
+      </c>
+      <c r="E7">
+        <v>730</v>
+      </c>
+      <c r="F7">
+        <v>772</v>
+      </c>
+      <c r="G7">
+        <v>155</v>
+      </c>
+      <c r="H7">
+        <v>938</v>
+      </c>
+      <c r="I7">
+        <v>348</v>
+      </c>
+      <c r="J7">
+        <v>418</v>
+      </c>
+      <c r="K7">
+        <v>1133</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>650.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>975</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>977</v>
+      </c>
+      <c r="E8">
+        <v>533</v>
+      </c>
+      <c r="F8">
+        <v>523</v>
+      </c>
+      <c r="G8">
+        <v>1385</v>
+      </c>
+      <c r="H8">
+        <v>338</v>
+      </c>
+      <c r="I8">
+        <v>958</v>
+      </c>
+      <c r="J8">
+        <v>981</v>
+      </c>
+      <c r="K8">
+        <v>213</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>703.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>609</v>
+      </c>
+      <c r="C9">
+        <v>1101</v>
+      </c>
+      <c r="D9">
+        <v>336</v>
+      </c>
+      <c r="E9">
+        <v>917</v>
+      </c>
+      <c r="F9">
+        <v>790</v>
+      </c>
+      <c r="G9">
+        <v>127</v>
+      </c>
+      <c r="H9">
+        <v>983</v>
+      </c>
+      <c r="I9">
+        <v>226</v>
+      </c>
+      <c r="J9">
+        <v>388</v>
+      </c>
+      <c r="K9">
+        <v>1277</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>675.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>920</v>
+      </c>
+      <c r="C10">
+        <v>102</v>
+      </c>
+      <c r="D10">
+        <v>896</v>
+      </c>
+      <c r="E10">
+        <v>391</v>
+      </c>
+      <c r="F10">
+        <v>676</v>
+      </c>
+      <c r="G10">
+        <v>1172</v>
+      </c>
+      <c r="H10">
+        <v>502</v>
+      </c>
+      <c r="I10">
+        <v>861</v>
+      </c>
+      <c r="J10">
+        <v>980</v>
+      </c>
+      <c r="K10">
+        <v>296</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>679.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>517</v>
+      </c>
+      <c r="C11">
+        <v>1385</v>
+      </c>
+      <c r="D11">
+        <v>294</v>
+      </c>
+      <c r="E11">
+        <v>1118</v>
+      </c>
+      <c r="F11">
+        <v>710</v>
+      </c>
+      <c r="G11">
+        <v>408</v>
+      </c>
+      <c r="H11">
+        <v>829</v>
+      </c>
+      <c r="I11">
+        <v>268</v>
+      </c>
+      <c r="J11">
+        <v>331</v>
+      </c>
+      <c r="K11">
+        <v>1181</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>704.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>863</v>
+      </c>
+      <c r="C12">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>1134</v>
+      </c>
+      <c r="E12">
+        <v>292</v>
+      </c>
+      <c r="F12">
+        <v>673</v>
+      </c>
+      <c r="G12">
+        <v>1016</v>
+      </c>
+      <c r="H12">
+        <v>678</v>
+      </c>
+      <c r="I12">
+        <v>1132</v>
+      </c>
+      <c r="J12">
+        <v>988</v>
+      </c>
+      <c r="K12">
+        <v>346</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>719.5</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="e">
+      <c r="M19">
         <f>AVERAGE(L1:L12,)</f>
-        <v>#DIV/0!</v>
+        <v>648.18461538461554</v>
       </c>
     </row>
   </sheetData>
